--- a/files/RAB_TAHAP_2.xlsx
+++ b/files/RAB_TAHAP_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Projects2023\omsyarif\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD6E7C-2D61-428C-8989-3F7B1FF70054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075BB93-41ED-4FD2-AE42-BC73C261D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="2052" windowWidth="23256" windowHeight="13176" xr2:uid="{33C0AA4B-F140-4707-ABDF-8D506283F594}"/>
   </bookViews>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,9 +246,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -252,12 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,6 +262,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +594,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,24 +607,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -641,7 +650,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
@@ -650,20 +659,20 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
@@ -682,7 +691,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2">
@@ -701,7 +710,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
@@ -720,7 +729,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2">
@@ -739,7 +748,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
@@ -758,7 +767,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2">
@@ -777,7 +786,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2">
@@ -795,20 +804,20 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2">
@@ -827,7 +836,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2">
@@ -846,7 +855,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
@@ -865,7 +874,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
@@ -884,7 +893,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2">
@@ -903,7 +912,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2">
@@ -913,16 +922,16 @@
         <v>14</v>
       </c>
       <c r="E19" s="5">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="3"/>
-        <v>120000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2">
@@ -943,7 +952,7 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3"/>
@@ -955,7 +964,7 @@
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2">
@@ -973,16 +982,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="7">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16">
         <f>SUM(F6:F22)</f>
-        <v>2675000</v>
+        <v>2655000</v>
       </c>
     </row>
   </sheetData>
